--- a/Phase 2-Team Planning_W23_.xlsx
+++ b/Phase 2-Team Planning_W23_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a91db6b604667dd/桌面/CSI-4142/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSI4142\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8973AB91-80AA-45BD-9727-6CFE35290847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8EEFB5-D001-49D3-9041-D96BD6CABB11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCEF778-9A5A-4058-A3BC-21F64DFFD360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2685" windowWidth="28800" windowHeight="18915" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+  <si>
+    <t>Deliverable checklist</t>
+  </si>
   <si>
     <t>Responsible</t>
   </si>
@@ -64,18 +67,6 @@
     <t xml:space="preserve">Create database instance </t>
   </si>
   <si>
-    <t xml:space="preserve">Create &lt;name&gt; dimension </t>
-  </si>
-  <si>
-    <t>Create &lt;name&gt; dimension</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Staging of dimension &lt;name&gt;</t>
-  </si>
-  <si>
     <t>Surrogate key pipeline</t>
   </si>
   <si>
@@ -97,23 +88,51 @@
     <t>CSI4142 - Project W23</t>
   </si>
   <si>
-    <t>Staging of dimension &lt;name&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deliverable checklist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">Create &lt;Demographics&gt; dimension </t>
+  </si>
+  <si>
+    <t>Create &lt;NutrientIntake&gt; dimension</t>
+  </si>
+  <si>
+    <t>Create &lt;PhysicalActivity&gt; dimension</t>
+  </si>
+  <si>
+    <t>Create &lt;MedicalCondition&gt; dimension</t>
+  </si>
+  <si>
+    <t>Staging of dimension &lt;Demographics&gt;</t>
+  </si>
+  <si>
+    <t>Staging of dimension &lt;NutrientIntake&gt;</t>
+  </si>
+  <si>
+    <t>Staging of dimension &lt;PhysicalActivity&gt;</t>
+  </si>
+  <si>
+    <t>Staging of dimension &lt;MedicalCondition&gt;</t>
+  </si>
+  <si>
+    <t>Junpeng Wen</t>
+  </si>
+  <si>
+    <t>Chenxiao Ze</t>
+  </si>
+  <si>
+    <t>Yongquan Long</t>
+  </si>
+  <si>
+    <t>Junpeng Wen,Chenxiao Ze, Yongquan Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,15 +140,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -227,9 +239,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,12 +259,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -545,213 +556,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825036BF-4FD7-4D21-BD38-801A4B8E13C8}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45351</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45356</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45366</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45366</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45368</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D12" s="9">
+        <v>45368</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45366</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45366</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45368</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D16" s="9">
+        <v>45368</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45362</v>
+      </c>
+      <c r="D17" s="9">
+        <v>45370</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45367</v>
+      </c>
+      <c r="D18" s="9">
+        <v>45370</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45371</v>
+      </c>
+      <c r="D19" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
